--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838038377044671</v>
+        <v>1.297418666666666</v>
       </c>
       <c r="H2">
-        <v>0.838038377044671</v>
+        <v>3.892256</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.321606552144019</v>
+        <v>0.3922993333333333</v>
       </c>
       <c r="N2">
-        <v>0.321606552144019</v>
+        <v>1.176898</v>
       </c>
       <c r="O2">
-        <v>0.1119524666310818</v>
+        <v>0.1197958591217032</v>
       </c>
       <c r="P2">
-        <v>0.1119524666310818</v>
+        <v>0.1197958591217032</v>
       </c>
       <c r="Q2">
-        <v>0.2695186330057061</v>
+        <v>0.5089764779875555</v>
       </c>
       <c r="R2">
-        <v>0.2695186330057061</v>
+        <v>4.580788301888</v>
       </c>
       <c r="S2">
-        <v>0.1119524666310818</v>
+        <v>0.1197958591217032</v>
       </c>
       <c r="T2">
-        <v>0.1119524666310818</v>
+        <v>0.1197958591217032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838038377044671</v>
+        <v>1.297418666666666</v>
       </c>
       <c r="H3">
-        <v>0.838038377044671</v>
+        <v>3.892256</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.516032668004381</v>
+        <v>0.544463</v>
       </c>
       <c r="N3">
-        <v>0.516032668004381</v>
+        <v>1.633389</v>
       </c>
       <c r="O3">
-        <v>0.1796329386331594</v>
+        <v>0.1662618498246574</v>
       </c>
       <c r="P3">
-        <v>0.1796329386331594</v>
+        <v>0.1662618498246574</v>
       </c>
       <c r="Q3">
-        <v>0.4324551795964229</v>
+        <v>0.7063964595093333</v>
       </c>
       <c r="R3">
-        <v>0.4324551795964229</v>
+        <v>6.357568135584</v>
       </c>
       <c r="S3">
-        <v>0.1796329386331594</v>
+        <v>0.1662618498246574</v>
       </c>
       <c r="T3">
-        <v>0.1796329386331594</v>
+        <v>0.1662618498246574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838038377044671</v>
+        <v>1.297418666666666</v>
       </c>
       <c r="H4">
-        <v>0.838038377044671</v>
+        <v>3.892256</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.6619579616401</v>
+        <v>1.882823333333333</v>
       </c>
       <c r="N4">
-        <v>1.6619579616401</v>
+        <v>5.64847</v>
       </c>
       <c r="O4">
-        <v>0.5785339011359882</v>
+        <v>0.5749549377882933</v>
       </c>
       <c r="P4">
-        <v>0.5785339011359882</v>
+        <v>0.5749549377882933</v>
       </c>
       <c r="Q4">
-        <v>1.392784552889339</v>
+        <v>2.442810138702222</v>
       </c>
       <c r="R4">
-        <v>1.392784552889339</v>
+        <v>21.98529124832</v>
       </c>
       <c r="S4">
-        <v>0.5785339011359882</v>
+        <v>0.5749549377882933</v>
       </c>
       <c r="T4">
-        <v>0.5785339011359882</v>
+        <v>0.5749549377882933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.838038377044671</v>
+        <v>1.297418666666666</v>
       </c>
       <c r="H5">
-        <v>0.838038377044671</v>
+        <v>3.892256</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.373109082056608</v>
+        <v>0.4551463333333333</v>
       </c>
       <c r="N5">
-        <v>0.373109082056608</v>
+        <v>1.365439</v>
       </c>
       <c r="O5">
-        <v>0.1298806935997705</v>
+        <v>0.1389873532653461</v>
       </c>
       <c r="P5">
-        <v>0.1298806935997705</v>
+        <v>0.1389873532653461</v>
       </c>
       <c r="Q5">
-        <v>0.3126797295873467</v>
+        <v>0.5905153489315554</v>
       </c>
       <c r="R5">
-        <v>0.3126797295873467</v>
+        <v>5.314638140383999</v>
       </c>
       <c r="S5">
-        <v>0.1298806935997705</v>
+        <v>0.1389873532653461</v>
       </c>
       <c r="T5">
-        <v>0.1298806935997705</v>
+        <v>0.1389873532653461</v>
       </c>
     </row>
   </sheetData>
